--- a/AleRabatSelenium/resources/testdata.xlsx
+++ b/AleRabatSelenium/resources/testdata.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FindShop" sheetId="1" r:id="rId1"/>
-    <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
+    <sheet name="ButtonsMainHeader" sheetId="2" r:id="rId2"/>
     <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>chrome</t>
   </si>
@@ -30,40 +30,10 @@
     <t>N</t>
   </si>
   <si>
-    <t>Spiderman</t>
-  </si>
-  <si>
-    <t>Mantis</t>
-  </si>
-  <si>
-    <t>Swordsman</t>
-  </si>
-  <si>
-    <t>Turbo</t>
-  </si>
-  <si>
-    <t>Helix</t>
-  </si>
-  <si>
-    <t>Jessica Jones</t>
-  </si>
-  <si>
-    <t>Hellstorm</t>
-  </si>
-  <si>
     <t>browserType</t>
   </si>
   <si>
     <t>executionMode</t>
-  </si>
-  <si>
-    <t>primaryCharacter</t>
-  </si>
-  <si>
-    <t>secondaryCharacter</t>
-  </si>
-  <si>
-    <t>expectedResultCount</t>
   </si>
   <si>
     <t>shopName</t>
@@ -422,8 +392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,16 +407,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -457,10 +427,10 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -471,10 +441,10 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -485,10 +455,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -499,97 +469,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="A2:E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>133</v>
       </c>
     </row>
   </sheetData>
